--- a/biology/Médecine/Syndrome_myéloprolifératif/Syndrome_myéloprolifératif.xlsx
+++ b/biology/Médecine/Syndrome_myéloprolifératif/Syndrome_myéloprolifératif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_my%C3%A9loprolif%C3%A9ratif</t>
+          <t>Syndrome_myéloprolifératif</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un syndrome myéloprolifératif est une maladie caractérisée par une production anormale, d'allure cancéreuse, de certains types de cellules sanguines dans la moelle osseuse.
 Il s'agit d'une prolifération clonale des cellules souches et progénitrices hématopoïétiques myéloïdes qui conservent une capacité de différenciation à l'inverse des leucémies aiguës. Il peut éventuellement évoluer en leucémie aiguë myéloïde, ou encore en myélofibrose secondaire.  
